--- a/medicine/Sexualité et sexologie/Le_Couvent_de_la_bête_sacrée/Le_Couvent_de_la_bête_sacrée.xlsx
+++ b/medicine/Sexualité et sexologie/Le_Couvent_de_la_bête_sacrée/Le_Couvent_de_la_bête_sacrée.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Couvent_de_la_b%C3%AAte_sacr%C3%A9e</t>
+          <t>Le_Couvent_de_la_bête_sacrée</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le Couvent de la bête sacrée (聖獣学園, Seijū gakuen?) est un film japonais de nonnesploitation, du sous-genre de pinku eiga produit par Toei Company, réalisé par Norifumi Suzuki et sorti en 1974.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Couvent_de_la_b%C3%AAte_sacr%C3%A9e</t>
+          <t>Le_Couvent_de_la_bête_sacrée</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">À la recherche de ses origines, une jeune Japonaise entre comme nonne au couvent du Sacré-Cœur dont elle possède une croix, signe que sa mère y était religieuse. Elle découvre un monde hédoniste où archevêque pécheur, mère supérieure lesbienne et autres nonnes doivent se fouetter cruellement en expiation de leurs fautes. Elle apprend que son père est l'archevêque et que pour la punir de ce péché de chair, sa mère a été martyrisée à mort et qu'elle est morte en la mettant au monde.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Couvent_de_la_b%C3%AAte_sacr%C3%A9e</t>
+          <t>Le_Couvent_de_la_bête_sacrée</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : 聖獣学園 (Seijū gakuen?)
 Titre français : Le Couvent de la bête sacrée
@@ -557,9 +573,9 @@
 Langue : japonais
 Format : couleur - 2,35:1 - 35 mm - son mono
 Genres : film érotique - pinku eiga - nonnesploitation
-Durée : 91 minutes[1]
+Durée : 91 minutes
 Date de sortie :
-Japon : 16 février 1974[1]</t>
+Japon : 16 février 1974</t>
         </is>
       </c>
     </row>
@@ -569,7 +585,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Le_Couvent_de_la_b%C3%AAte_sacr%C3%A9e</t>
+          <t>Le_Couvent_de_la_bête_sacrée</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -587,7 +603,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Yumi Takigawa : Maya Takigawa
 Emiko Yamauchi : Matsuko Ishida
